--- a/media/BAJAJ-PL/TC Incentive/FEB 22/BAJAJ-PL TC Incentive.xlsx
+++ b/media/BAJAJ-PL/TC Incentive/FEB 22/BAJAJ-PL TC Incentive.xlsx
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -792,11 +792,11 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>41279</v>
+        <v>241279</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1390,16 +1390,16 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>1238.37</v>
+        <v>852.16</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
@@ -2095,11 +2095,11 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
@@ -3406,15 +3406,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NEELU MALIK</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -3422,20 +3422,56 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+          <t>LESS THAN DEMAND</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="X26" t="n">
+        <v>274</v>
+      </c>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>O300</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="AG26" s="2" t="n">
+        <v>37316</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6493,15 +6529,15 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -6509,20 +6545,56 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+          <t>LESS THAN DEMAND</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="X55" t="n">
+        <v>177</v>
+      </c>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>O299</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="AG55" s="2" t="n">
+        <v>34093</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6613,11 +6685,11 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>44.78</v>
       </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
@@ -7591,15 +7663,15 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -7607,20 +7679,56 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
+          <t>LESS THAN DEMAND</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="X65" t="n">
+        <v>75</v>
+      </c>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>O299</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="AG65" s="2" t="n">
+        <v>34093</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7810,11 +7918,11 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
@@ -9772,11 +9880,11 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>431.7</v>
       </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
@@ -11095,11 +11203,11 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>37.47</v>
       </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
@@ -12235,15 +12343,15 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NEELU MALIK</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U109" t="n">
@@ -12251,20 +12359,56 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
+          <t>MORE THAN DEMAND</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
       <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
-      <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>O300</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="AG109" s="2" t="n">
+        <v>37316</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15699,11 +15843,11 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X142" t="n">
-        <v>0</v>
+        <v>36.62</v>
       </c>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
@@ -17589,11 +17733,11 @@
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="X160" t="n">
-        <v>0</v>
+        <v>329.1</v>
       </c>
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
@@ -18318,11 +18462,11 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X167" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
@@ -19686,11 +19830,11 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="X179" t="n">
-        <v>0</v>
+        <v>243.12</v>
       </c>
       <c r="Y179" t="inlineStr"/>
       <c r="Z179" t="inlineStr">
@@ -20101,7 +20245,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>4700</v>
+        <v>9350</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -20122,7 +20266,7 @@
         </is>
       </c>
       <c r="X183" t="n">
-        <v>141</v>
+        <v>280.5</v>
       </c>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr">
@@ -20253,11 +20397,11 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X184" t="n">
-        <v>0</v>
+        <v>62.67</v>
       </c>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr">
@@ -20622,11 +20766,11 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X187" t="n">
-        <v>0</v>
+        <v>22.67</v>
       </c>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr">
@@ -22152,11 +22296,11 @@
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="X201" t="n">
-        <v>0</v>
+        <v>348.72</v>
       </c>
       <c r="Y201" t="inlineStr"/>
       <c r="Z201" t="inlineStr">
@@ -23682,11 +23826,11 @@
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X215" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y215" t="inlineStr"/>
       <c r="Z215" t="inlineStr">
@@ -24249,11 +24393,11 @@
       </c>
       <c r="W220" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X220" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y220" t="inlineStr"/>
       <c r="Z220" t="inlineStr">
@@ -24363,15 +24507,15 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U221" t="n">
@@ -24379,20 +24523,56 @@
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-      <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
+          <t>LESS THAN DEMAND</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="X221" t="n">
+        <v>375</v>
+      </c>
       <c r="Y221" t="inlineStr"/>
-      <c r="Z221" t="inlineStr"/>
-      <c r="AA221" t="inlineStr"/>
-      <c r="AB221" t="inlineStr"/>
-      <c r="AC221" t="inlineStr"/>
-      <c r="AD221" t="inlineStr"/>
-      <c r="AE221" t="inlineStr"/>
-      <c r="AF221" t="inlineStr"/>
-      <c r="AG221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>O299</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="AC221" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="AG221" s="2" t="n">
+        <v>34093</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -27840,11 +28020,11 @@
       </c>
       <c r="W253" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X253" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr">
@@ -30486,11 +30666,11 @@
       </c>
       <c r="W279" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X279" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Y279" t="inlineStr"/>
       <c r="Z279" t="inlineStr">
@@ -33177,11 +33357,11 @@
       </c>
       <c r="W304" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X304" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y304" t="inlineStr"/>
       <c r="Z304" t="inlineStr">
@@ -34698,11 +34878,11 @@
       </c>
       <c r="W319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="X319" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Y319" t="inlineStr"/>
       <c r="Z319" t="inlineStr">
@@ -41580,15 +41760,15 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U388" t="n">
@@ -41596,20 +41776,56 @@
       </c>
       <c r="V388" t="inlineStr">
         <is>
-          <t>UNPAID</t>
-        </is>
-      </c>
-      <c r="W388" t="inlineStr"/>
-      <c r="X388" t="inlineStr"/>
+          <t>MORE THAN DEMAND</t>
+        </is>
+      </c>
+      <c r="W388" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="X388" t="n">
+        <v>400.68</v>
+      </c>
       <c r="Y388" t="inlineStr"/>
-      <c r="Z388" t="inlineStr"/>
-      <c r="AA388" t="inlineStr"/>
-      <c r="AB388" t="inlineStr"/>
-      <c r="AC388" t="inlineStr"/>
-      <c r="AD388" t="inlineStr"/>
-      <c r="AE388" t="inlineStr"/>
-      <c r="AF388" t="inlineStr"/>
-      <c r="AG388" t="inlineStr"/>
+      <c r="Z388" t="inlineStr">
+        <is>
+          <t>O299</t>
+        </is>
+      </c>
+      <c r="AA388" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="AB388" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="AC388" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="AD388" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="AE388" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="AF388" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="AG388" s="2" t="n">
+        <v>34093</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -47577,11 +47793,11 @@
       </c>
       <c r="W448" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="X448" t="n">
-        <v>0</v>
+        <v>205.5</v>
       </c>
       <c r="Y448" t="inlineStr"/>
       <c r="Z448" t="inlineStr">
@@ -50863,7 +51079,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>6000</v>
+        <v>9661</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -50884,7 +51100,7 @@
         </is>
       </c>
       <c r="X481" t="n">
-        <v>180</v>
+        <v>289.83</v>
       </c>
       <c r="Y481" t="inlineStr"/>
       <c r="Z481" t="inlineStr">
